--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H2">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N2">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q2">
-        <v>8.918888941642823</v>
+        <v>20.47842939561955</v>
       </c>
       <c r="R2">
-        <v>8.918888941642823</v>
+        <v>184.305864560576</v>
       </c>
       <c r="S2">
-        <v>0.01173395687713086</v>
+        <v>0.02395169755024385</v>
       </c>
       <c r="T2">
-        <v>0.01173395687713086</v>
+        <v>0.02395169755024385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H3">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N3">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q3">
-        <v>6.216296236638122</v>
+        <v>6.873713277297778</v>
       </c>
       <c r="R3">
-        <v>6.216296236638122</v>
+        <v>61.86341949568</v>
       </c>
       <c r="S3">
-        <v>0.008178345133956448</v>
+        <v>0.008039537519422683</v>
       </c>
       <c r="T3">
-        <v>0.008178345133956448</v>
+        <v>0.008039537519422685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H4">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N4">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q4">
-        <v>518.4541512127472</v>
+        <v>574.8356376973858</v>
       </c>
       <c r="R4">
-        <v>518.4541512127472</v>
+        <v>5173.520739276472</v>
       </c>
       <c r="S4">
-        <v>0.6820937779251341</v>
+        <v>0.6723313135613049</v>
       </c>
       <c r="T4">
-        <v>0.6820937779251341</v>
+        <v>0.672331313561305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H5">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N5">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q5">
-        <v>3.785971025457632</v>
+        <v>8.596927392864</v>
       </c>
       <c r="R5">
-        <v>3.785971025457632</v>
+        <v>77.372346535776</v>
       </c>
       <c r="S5">
-        <v>0.004980936643729969</v>
+        <v>0.01005501939613252</v>
       </c>
       <c r="T5">
-        <v>0.004980936643729969</v>
+        <v>0.01005501939613252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H6">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N6">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q6">
-        <v>2.638749915103019</v>
+        <v>2.88561260352</v>
       </c>
       <c r="R6">
-        <v>2.638749915103019</v>
+        <v>25.97051343168</v>
       </c>
       <c r="S6">
-        <v>0.003471618260519373</v>
+        <v>0.003375030330278498</v>
       </c>
       <c r="T6">
-        <v>0.003471618260519373</v>
+        <v>0.003375030330278498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H7">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N7">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q7">
-        <v>220.0781293906482</v>
+        <v>241.318323033708</v>
       </c>
       <c r="R7">
-        <v>220.0781293906482</v>
+        <v>2171.864907303372</v>
       </c>
       <c r="S7">
-        <v>0.2895413651595291</v>
+        <v>0.2822474016426175</v>
       </c>
       <c r="T7">
-        <v>0.2895413651595291</v>
+        <v>0.2822474016426175</v>
       </c>
     </row>
   </sheetData>
